--- a/data/data_prep/family_data.xlsx
+++ b/data/data_prep/family_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A478BE5-9E0F-4208-8B5A-EFF9183B0CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DF5F62-D8C5-491C-A3D1-CE3076012CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="780" windowWidth="26475" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FamilyData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="242">
   <si>
     <t>PersonID</t>
   </si>
@@ -680,6 +680,72 @@
   </si>
   <si>
     <t>Melania</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Vasiliy</t>
+  </si>
+  <si>
+    <t>Fyodor</t>
+  </si>
+  <si>
+    <t>Nikolai</t>
+  </si>
+  <si>
+    <t>Evgeniya</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Galina</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Platon</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Dmitriy</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Vitaliy</t>
+  </si>
+  <si>
+    <t>Kazimir</t>
+  </si>
+  <si>
+    <t>Natalya</t>
+  </si>
+  <si>
+    <t>Artyom</t>
+  </si>
+  <si>
+    <t>Evgeny</t>
+  </si>
+  <si>
+    <t>Evgenii</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,6 +2280,9 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
       <c r="C32" t="s">
         <v>151</v>
       </c>
@@ -2240,6 +2309,9 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
       <c r="C33" t="s">
         <v>154</v>
       </c>
@@ -2269,6 +2341,9 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
       <c r="C34" t="s">
         <v>66</v>
       </c>
@@ -2304,6 +2379,9 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
       <c r="C35" t="s">
         <v>160</v>
       </c>
@@ -2342,6 +2420,9 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>223</v>
+      </c>
       <c r="C36" t="s">
         <v>68</v>
       </c>
@@ -2377,6 +2458,9 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
       <c r="C37" t="s">
         <v>168</v>
       </c>
@@ -2397,6 +2481,9 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>225</v>
+      </c>
       <c r="C38" t="s">
         <v>169</v>
       </c>
@@ -2423,6 +2510,9 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
       <c r="C39" t="s">
         <v>171</v>
       </c>
@@ -2449,6 +2539,9 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
       <c r="C40" t="s">
         <v>174</v>
       </c>
@@ -2478,6 +2571,9 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
       <c r="C41" t="s">
         <v>177</v>
       </c>
@@ -2510,6 +2606,9 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>229</v>
+      </c>
       <c r="C42" t="s">
         <v>180</v>
       </c>
@@ -2536,6 +2635,9 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>230</v>
+      </c>
       <c r="C43" t="s">
         <v>182</v>
       </c>
@@ -2559,6 +2661,9 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>231</v>
+      </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -2582,6 +2687,9 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>232</v>
+      </c>
       <c r="C45" t="s">
         <v>183</v>
       </c>
@@ -2602,6 +2710,9 @@
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
       <c r="C46" t="s">
         <v>184</v>
       </c>
@@ -2631,6 +2742,9 @@
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
       <c r="C47" t="s">
         <v>187</v>
       </c>
@@ -2657,6 +2771,9 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
       <c r="C48" t="s">
         <v>90</v>
       </c>
@@ -2680,6 +2797,9 @@
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
       <c r="C49" t="s">
         <v>177</v>
       </c>
@@ -2703,6 +2823,9 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>237</v>
+      </c>
       <c r="C50" t="s">
         <v>191</v>
       </c>
@@ -2723,6 +2846,9 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>222</v>
+      </c>
       <c r="C51" t="s">
         <v>193</v>
       </c>
@@ -2749,6 +2875,9 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
       <c r="C52" t="s">
         <v>197</v>
       </c>
@@ -2772,6 +2901,9 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
@@ -2798,6 +2930,9 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
       <c r="C54" t="s">
         <v>204</v>
       </c>
@@ -2818,6 +2953,9 @@
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
       <c r="C55" t="s">
         <v>126</v>
       </c>
@@ -2840,6 +2978,9 @@
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>241</v>
       </c>
       <c r="C56" t="s">
         <v>206</v>

--- a/data/data_prep/family_data.xlsx
+++ b/data/data_prep/family_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DF5F62-D8C5-491C-A3D1-CE3076012CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9251842D-64D4-4532-8EE3-5431FF8F81A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="243">
   <si>
     <t>PersonID</t>
   </si>
@@ -94,9 +94,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>Noname</t>
-  </si>
-  <si>
     <t>noname</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>1, 21</t>
   </si>
   <si>
-    <t>Babush Belar</t>
-  </si>
-  <si>
     <t>Крупки, Беларусь</t>
   </si>
   <si>
@@ -664,9 +658,6 @@
     <t>08.05.1989</t>
   </si>
   <si>
-    <t>14.01.1925</t>
-  </si>
-  <si>
     <t>28.11.2009</t>
   </si>
   <si>
@@ -746,6 +737,18 @@
   </si>
   <si>
     <t>Evgenii</t>
+  </si>
+  <si>
+    <t>Вера</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>05.08.1945</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,19 +1209,22 @@
       <c r="M2">
         <v>4</v>
       </c>
+      <c r="P2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1228,6 +1234,9 @@
       </c>
       <c r="M3">
         <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1235,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1247,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>21</v>
@@ -1256,22 +1265,22 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1279,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1291,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>21</v>
@@ -1300,19 +1309,19 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>40</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1320,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1332,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -1344,25 +1353,25 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
         <v>47</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,19 +1379,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1394,22 +1403,25 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7" t="s">
         <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1417,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1429,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1441,13 +1453,16 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q8" t="s">
         <v>58</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1455,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1473,16 +1488,19 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
         <v>62</v>
-      </c>
-      <c r="L9" t="s">
-        <v>63</v>
       </c>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1490,10 +1508,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1502,13 +1520,16 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1516,34 +1537,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1551,31 +1572,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="P12" t="s">
+        <v>242</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1583,10 +1607,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
         <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1598,13 +1622,16 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13">
         <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1612,13 +1639,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1627,13 +1654,16 @@
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14">
         <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="P14" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1641,19 +1671,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
         <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -1665,22 +1695,25 @@
         <v>29</v>
       </c>
       <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
         <v>86</v>
-      </c>
-      <c r="L15" t="s">
-        <v>87</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>242</v>
       </c>
       <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" t="s">
         <v>88</v>
-      </c>
-      <c r="R15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1688,31 +1721,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1720,19 +1756,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H17">
         <v>24</v>
@@ -1744,22 +1780,25 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
         <v>95</v>
-      </c>
-      <c r="L17" t="s">
-        <v>96</v>
       </c>
       <c r="M17">
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>242</v>
       </c>
       <c r="Q17" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" t="s">
         <v>97</v>
-      </c>
-      <c r="R17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1767,19 +1806,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1788,13 +1827,16 @@
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1802,19 +1844,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>104</v>
       </c>
       <c r="H19">
         <v>19</v>
@@ -1826,25 +1868,28 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" t="s">
         <v>105</v>
-      </c>
-      <c r="L19" t="s">
-        <v>106</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q19" t="s">
         <v>107</v>
       </c>
-      <c r="O19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>108</v>
-      </c>
-      <c r="R19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1852,28 +1897,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
         <v>110</v>
       </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H20">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1881,19 +1929,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I21">
         <v>18</v>
@@ -1904,16 +1952,19 @@
       <c r="M21">
         <v>5</v>
       </c>
+      <c r="P21" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
         <v>112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1922,7 +1973,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22">
         <v>22</v>
@@ -1934,25 +1985,25 @@
         <v>28</v>
       </c>
       <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
         <v>115</v>
-      </c>
-      <c r="L22" t="s">
-        <v>116</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1960,19 +2011,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -1984,25 +2035,25 @@
         <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" t="s">
         <v>121</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2010,10 +2061,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -2026,6 +2077,9 @@
       </c>
       <c r="M24">
         <v>5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2033,37 +2087,40 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>126</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M25">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P25" t="s">
+        <v>242</v>
       </c>
       <c r="Q25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2071,19 +2128,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -2092,19 +2146,22 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M26">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P26" t="s">
+        <v>242</v>
       </c>
       <c r="Q26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2112,19 +2169,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>134</v>
-      </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I27">
         <v>24</v>
@@ -2133,19 +2190,22 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M27">
         <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P27" t="s">
+        <v>242</v>
       </c>
       <c r="Q27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2153,10 +2213,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
         <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2168,10 +2228,13 @@
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M28">
         <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2179,22 +2242,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>240</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
       </c>
       <c r="H29">
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="P29" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2202,22 +2274,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
         <v>142</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2229,19 +2301,22 @@
         <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
+      <c r="P30" t="s">
+        <v>242</v>
+      </c>
       <c r="Q30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2249,31 +2324,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31">
         <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M31">
         <v>3</v>
+      </c>
+      <c r="P31" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2281,28 +2359,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32">
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
+      <c r="P32" t="s">
+        <v>242</v>
+      </c>
       <c r="Q32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2310,10 +2391,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2325,16 +2406,19 @@
         <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
+      <c r="P33" t="s">
+        <v>242</v>
+      </c>
       <c r="Q33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2342,10 +2426,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2360,19 +2444,22 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M34">
         <v>3</v>
       </c>
+      <c r="P34" t="s">
+        <v>242</v>
+      </c>
       <c r="Q34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2380,16 +2467,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <v>38</v>
@@ -2401,19 +2488,22 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
+      <c r="P35" t="s">
+        <v>242</v>
+      </c>
       <c r="Q35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2421,10 +2511,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -2439,19 +2529,22 @@
         <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
+      <c r="P36" t="s">
+        <v>242</v>
+      </c>
       <c r="Q36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2459,22 +2552,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M37">
         <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2482,10 +2578,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2500,10 +2596,13 @@
         <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M38">
         <v>4</v>
+      </c>
+      <c r="P38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2511,13 +2610,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -2526,13 +2625,16 @@
         <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
+      <c r="P39" t="s">
+        <v>242</v>
+      </c>
       <c r="Q39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2540,16 +2642,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -2558,13 +2660,16 @@
         <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="P40" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2572,13 +2677,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2593,13 +2698,16 @@
         <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M41">
         <v>4</v>
+      </c>
+      <c r="P41" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2607,13 +2715,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -2625,10 +2733,13 @@
         <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M42">
         <v>4</v>
+      </c>
+      <c r="P42" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2636,13 +2747,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -2655,6 +2766,9 @@
       </c>
       <c r="M43">
         <v>5</v>
+      </c>
+      <c r="P43" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2662,25 +2776,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" t="s">
         <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
       </c>
       <c r="H44">
         <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M44">
         <v>4</v>
+      </c>
+      <c r="P44" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2688,22 +2805,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H45">
         <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M45">
         <v>3</v>
+      </c>
+      <c r="P45" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -2711,13 +2831,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46">
         <v>48</v>
@@ -2729,13 +2849,16 @@
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M46">
         <v>4</v>
+      </c>
+      <c r="P46" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2743,10 +2866,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -2758,13 +2881,16 @@
         <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M47">
         <v>4</v>
+      </c>
+      <c r="P47" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2772,13 +2898,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -2791,6 +2917,9 @@
       </c>
       <c r="M48">
         <v>5</v>
+      </c>
+      <c r="P48" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2798,13 +2927,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -2813,10 +2942,13 @@
         <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M49">
         <v>4</v>
+      </c>
+      <c r="P49" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2824,22 +2956,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I50">
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M50">
         <v>5</v>
+      </c>
+      <c r="P50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2847,10 +2982,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -2859,16 +2994,16 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -2876,25 +3011,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
       <c r="L52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -2902,10 +3037,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -2914,16 +3049,16 @@
         <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -2931,22 +3066,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H54">
         <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M54">
         <v>4</v>
+      </c>
+      <c r="P54" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -2954,10 +3092,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
         <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -2969,10 +3107,13 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M55">
         <v>5</v>
+      </c>
+      <c r="P55" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -2980,10 +3121,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -2995,10 +3136,13 @@
         <v>53</v>
       </c>
       <c r="K56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M56">
         <v>5</v>
+      </c>
+      <c r="P56" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_prep/family_data.xlsx
+++ b/data/data_prep/family_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9251842D-64D4-4532-8EE3-5431FF8F81A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E09311-7F1C-4626-B42E-7BE437F2F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,9 +370,6 @@
     <t>3, 4, 5</t>
   </si>
   <si>
-    <t>id1-leonid.png</t>
-  </si>
-  <si>
     <t>Elena</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
     <t>Teaching</t>
   </si>
   <si>
-    <t>id2-elena.png</t>
-  </si>
-  <si>
     <t>Sasha</t>
   </si>
   <si>
@@ -749,6 +743,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>id21-leonid.png</t>
+  </si>
+  <si>
+    <t>id22-elena.png</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q7" t="s">
         <v>53</v>
@@ -1459,7 +1459,7 @@
         <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q8" t="s">
         <v>58</v>
@@ -1500,7 +1500,7 @@
         <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -1596,7 +1596,7 @@
         <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q12" t="s">
         <v>74</v>
@@ -1631,7 +1631,7 @@
         <v>63</v>
       </c>
       <c r="P13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q15" t="s">
         <v>87</v>
@@ -1733,7 +1733,7 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -1748,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1768,7 +1768,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H17">
         <v>24</v>
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q17" t="s">
         <v>96</v>
@@ -1818,7 +1818,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1836,7 +1836,7 @@
         <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q19" t="s">
         <v>107</v>
@@ -1906,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H20">
         <v>18</v>
@@ -1921,7 +1921,7 @@
         <v>31</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I21">
         <v>18</v>
@@ -1953,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
         <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2011,10 +2011,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
         <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -2035,7 +2035,7 @@
         <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s">
         <v>115</v>
@@ -2050,10 +2050,10 @@
         <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2061,10 +2061,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -2079,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2087,19 +2087,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>126</v>
-      </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H25">
         <v>16</v>
@@ -2114,10 +2114,10 @@
         <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R25" t="s">
         <v>97</v>
@@ -2128,10 +2128,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
         <v>93</v>
@@ -2146,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M26">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R26" t="s">
         <v>97</v>
@@ -2169,10 +2169,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
@@ -2181,7 +2181,7 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I27">
         <v>24</v>
@@ -2190,7 +2190,7 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M27">
         <v>6</v>
@@ -2199,10 +2199,10 @@
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R27" t="s">
         <v>97</v>
@@ -2213,10 +2213,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2228,13 +2228,13 @@
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2242,31 +2242,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H29">
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2274,22 +2274,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s">
         <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s">
-        <v>142</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2301,22 +2301,22 @@
         <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2324,10 +2324,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
         <v>102</v>
@@ -2336,22 +2336,22 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H31">
         <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2359,10 +2359,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -2371,19 +2371,19 @@
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2391,10 +2391,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2406,19 +2406,19 @@
         <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2426,7 +2426,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -2444,22 +2444,22 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M34">
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2470,10 +2470,10 @@
         <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -2488,22 +2488,22 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
@@ -2529,22 +2529,22 @@
         <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2552,10 +2552,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -2564,13 +2564,13 @@
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M37">
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2578,10 +2578,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2596,13 +2596,13 @@
         <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M38">
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2610,13 +2610,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -2625,16 +2625,16 @@
         <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2642,13 +2642,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
@@ -2660,16 +2660,16 @@
         <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2677,13 +2677,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2698,16 +2698,16 @@
         <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2715,13 +2715,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -2733,13 +2733,13 @@
         <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M42">
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2747,13 +2747,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -2768,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2776,13 +2776,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
@@ -2791,13 +2791,13 @@
         <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M44">
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2805,10 +2805,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
         <v>25</v>
@@ -2817,13 +2817,13 @@
         <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="P45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -2831,10 +2831,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -2849,16 +2849,16 @@
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M46">
         <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2866,10 +2866,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -2881,16 +2881,16 @@
         <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M47">
         <v>4</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2898,13 +2898,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -2919,7 +2919,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2927,13 +2927,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -2942,13 +2942,13 @@
         <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M49">
         <v>4</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2956,10 +2956,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E50" t="s">
         <v>25</v>
@@ -2968,13 +2968,13 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M50">
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2982,10 +2982,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -2994,16 +2994,16 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3011,25 +3011,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
       <c r="L52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
@@ -3049,16 +3049,16 @@
         <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3066,10 +3066,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
@@ -3078,13 +3078,13 @@
         <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -3107,13 +3107,13 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M55">
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3121,10 +3121,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -3136,13 +3136,13 @@
         <v>53</v>
       </c>
       <c r="K56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M56">
         <v>5</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_prep/family_data.xlsx
+++ b/data/data_prep/family_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E09311-7F1C-4626-B42E-7BE437F2F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF837BED-C788-4550-9839-D3A9A7637187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="242">
   <si>
     <t>PersonID</t>
   </si>
@@ -700,9 +700,6 @@
     <t>Luka</t>
   </si>
   <si>
-    <t>Platon</t>
-  </si>
-  <si>
     <t>Irina</t>
   </si>
   <si>
@@ -724,15 +721,9 @@
     <t>Natalya</t>
   </si>
   <si>
-    <t>Artyom</t>
-  </si>
-  <si>
     <t>Evgeny</t>
   </si>
   <si>
-    <t>Evgenii</t>
-  </si>
-  <si>
     <t>Вера</t>
   </si>
   <si>
@@ -749,6 +740,12 @@
   </si>
   <si>
     <t>id22-elena.png</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Nina</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1218,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
         <v>187</v>
@@ -1236,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1418,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q7" t="s">
         <v>53</v>
@@ -1459,7 +1456,7 @@
         <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q8" t="s">
         <v>58</v>
@@ -1500,7 +1497,7 @@
         <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1529,7 +1526,7 @@
         <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1596,7 +1593,7 @@
         <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q12" t="s">
         <v>74</v>
@@ -1631,7 +1628,7 @@
         <v>63</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1663,7 +1660,7 @@
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1707,7 +1704,7 @@
         <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q15" t="s">
         <v>87</v>
@@ -1748,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1792,7 +1789,7 @@
         <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q17" t="s">
         <v>96</v>
@@ -1836,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1883,7 +1880,7 @@
         <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q19" t="s">
         <v>107</v>
@@ -1921,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1953,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2003,7 +2000,7 @@
         <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2053,7 +2050,7 @@
         <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2079,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2114,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q25" t="s">
         <v>125</v>
@@ -2155,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q26" t="s">
         <v>129</v>
@@ -2199,7 +2196,7 @@
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q27" t="s">
         <v>133</v>
@@ -2234,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2242,16 +2239,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H29">
         <v>27</v>
@@ -2266,7 +2263,7 @@
         <v>137</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2310,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q30" t="s">
         <v>144</v>
@@ -2351,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2377,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q32" t="s">
         <v>149</v>
@@ -2415,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q33" t="s">
         <v>152</v>
@@ -2453,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q34" t="s">
         <v>155</v>
@@ -2497,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q35" t="s">
         <v>160</v>
@@ -2538,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q36" t="s">
         <v>163</v>
@@ -2570,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2602,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2631,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q39" t="s">
         <v>169</v>
@@ -2669,7 +2666,7 @@
         <v>172</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2707,7 +2704,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2739,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2768,7 +2765,7 @@
         <v>5</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2776,7 +2773,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
@@ -2797,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2805,7 +2802,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
         <v>179</v>
@@ -2823,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -2831,7 +2828,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
         <v>180</v>
@@ -2858,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2866,7 +2863,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s">
         <v>183</v>
@@ -2890,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2898,7 +2895,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
         <v>89</v>
@@ -2919,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2927,7 +2924,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -2948,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2956,7 +2953,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
         <v>187</v>
@@ -2974,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2982,7 +2979,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
         <v>189</v>
@@ -3011,7 +3008,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C52" t="s">
         <v>193</v>
@@ -3037,7 +3034,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
@@ -3066,7 +3063,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
         <v>200</v>
@@ -3084,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3113,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3121,7 +3118,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
         <v>202</v>
@@ -3142,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_prep/family_data.xlsx
+++ b/data/data_prep/family_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF837BED-C788-4550-9839-D3A9A7637187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DA808-1CF4-48FF-A2DE-44A0BE9B283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,9 +646,6 @@
     <t>28.12.1968</t>
   </si>
   <si>
-    <t>02.06.1925</t>
-  </si>
-  <si>
     <t>08.05.1989</t>
   </si>
   <si>
@@ -746,6 +743,9 @@
   </si>
   <si>
     <t>Nina</t>
+  </si>
+  <si>
+    <t>02.06.1991</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>187</v>
@@ -1233,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q7" t="s">
         <v>53</v>
@@ -1456,7 +1456,7 @@
         <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q8" t="s">
         <v>58</v>
@@ -1497,7 +1497,7 @@
         <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -1593,7 +1593,7 @@
         <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q12" t="s">
         <v>74</v>
@@ -1628,7 +1628,7 @@
         <v>63</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q15" t="s">
         <v>87</v>
@@ -1745,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q17" t="s">
         <v>96</v>
@@ -1833,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q19" t="s">
         <v>107</v>
@@ -1918,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="I21">
         <v>18</v>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H25">
         <v>16</v>
@@ -2111,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q25" t="s">
         <v>125</v>
@@ -2152,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q26" t="s">
         <v>129</v>
@@ -2178,7 +2178,7 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I27">
         <v>24</v>
@@ -2196,7 +2196,7 @@
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q27" t="s">
         <v>133</v>
@@ -2231,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2239,16 +2239,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H29">
         <v>27</v>
@@ -2263,7 +2263,7 @@
         <v>137</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q30" t="s">
         <v>144</v>
@@ -2333,10 +2333,10 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
         <v>212</v>
-      </c>
-      <c r="G31" t="s">
-        <v>213</v>
       </c>
       <c r="H31">
         <v>29</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
         <v>147</v>
@@ -2374,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q32" t="s">
         <v>149</v>
@@ -2388,7 +2388,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
         <v>150</v>
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q33" t="s">
         <v>152</v>
@@ -2423,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q34" t="s">
         <v>155</v>
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q35" t="s">
         <v>160</v>
@@ -2508,7 +2508,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q36" t="s">
         <v>163</v>
@@ -2549,7 +2549,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" t="s">
         <v>164</v>
@@ -2567,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
         <v>165</v>
@@ -2599,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" t="s">
         <v>167</v>
@@ -2628,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q39" t="s">
         <v>169</v>
@@ -2639,7 +2639,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
         <v>170</v>
@@ -2666,7 +2666,7 @@
         <v>172</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
         <v>173</v>
@@ -2704,7 +2704,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" t="s">
         <v>176</v>
@@ -2736,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
         <v>178</v>
@@ -2765,7 +2765,7 @@
         <v>5</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s">
         <v>179</v>
@@ -2820,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
         <v>180</v>
@@ -2855,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s">
         <v>183</v>
@@ -2887,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s">
         <v>89</v>
@@ -2916,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C50" t="s">
         <v>187</v>
@@ -2971,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C51" t="s">
         <v>189</v>
@@ -3008,7 +3008,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C52" t="s">
         <v>193</v>
@@ -3034,7 +3034,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
@@ -3063,7 +3063,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C54" t="s">
         <v>200</v>
@@ -3081,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3118,7 +3118,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
         <v>202</v>
@@ -3139,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_prep/family_data.xlsx
+++ b/data/data_prep/family_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DA808-1CF4-48FF-A2DE-44A0BE9B283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B31CE-A0D7-4237-9EAF-10C31ABF9BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="285">
   <si>
     <t>PersonID</t>
   </si>
@@ -88,18 +88,42 @@
     <t>M</t>
   </si>
   <si>
+    <t>12.05.1970</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>noname</t>
+    <t>Палатка, Магаданская область, СССР</t>
+  </si>
+  <si>
+    <t>Шахты, Ростовская область, Россия</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Марина</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>04.09.1973</t>
+  </si>
+  <si>
+    <t>Терней, Приморский край, Россия</t>
+  </si>
+  <si>
+    <t>Находка, Приморский край, Россия</t>
+  </si>
+  <si>
     <t>Sergey</t>
   </si>
   <si>
@@ -112,10 +136,7 @@
     <t>4, 5</t>
   </si>
   <si>
-    <t>Palatka, Magadan region, Russia</t>
-  </si>
-  <si>
-    <t>Sankt-Peterburg, Russia</t>
+    <t>Санкт-Петербург, Россия</t>
   </si>
   <si>
     <t>Science, engineering</t>
@@ -136,10 +157,10 @@
     <t>3, 5</t>
   </si>
   <si>
-    <t>Magadan, Russia</t>
-  </si>
-  <si>
-    <t>Sokol, Magadan region, Russia</t>
+    <t>Магадан, Россия</t>
+  </si>
+  <si>
+    <t>Соколо, Магаданская область, Россия</t>
   </si>
   <si>
     <t>Kid</t>
@@ -178,7 +199,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Petropavlovsk, Kazahstan</t>
+    <t>Петропавловск, Казахстан</t>
   </si>
   <si>
     <t>id6-sophia.png</t>
@@ -193,7 +214,7 @@
     <t>05.02.2020</t>
   </si>
   <si>
-    <t>Novosibirsk, Russia</t>
+    <t>Новосибирск, Россия</t>
   </si>
   <si>
     <t>id7-sviatik.png</t>
@@ -211,7 +232,7 @@
     <t>12, 13</t>
   </si>
   <si>
-    <t>Krasnoyarsk, Russia</t>
+    <t>Красноярск, Россия</t>
   </si>
   <si>
     <t>Fedia</t>
@@ -235,7 +256,10 @@
     <t>6, 8</t>
   </si>
   <si>
-    <t>Barnaul, Russia</t>
+    <t>Барнаул, Россия</t>
+  </si>
+  <si>
+    <t>Melania</t>
   </si>
   <si>
     <t>Милана</t>
@@ -283,6 +307,9 @@
     <t>16, 17</t>
   </si>
   <si>
+    <t>Ленинград, СССР</t>
+  </si>
+  <si>
     <t>id14-olga.png</t>
   </si>
   <si>
@@ -295,15 +322,21 @@
     <t>Королёв</t>
   </si>
   <si>
+    <t>15.03.1965</t>
+  </si>
+  <si>
     <t>Anna</t>
   </si>
   <si>
-    <t xml:space="preserve">Анна </t>
+    <t>Анна</t>
   </si>
   <si>
     <t>Жукова</t>
   </si>
   <si>
+    <t>15.05.1989</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -322,6 +355,9 @@
     <t>Игорь</t>
   </si>
   <si>
+    <t>17.10.1993</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -340,7 +376,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>Halle, Germany</t>
+    <t>Галле, ГДР</t>
   </si>
   <si>
     <t>id18-sergey.png</t>
@@ -355,6 +391,15 @@
     <t>Виктория</t>
   </si>
   <si>
+    <t>Пашкова</t>
+  </si>
+  <si>
+    <t>28.12.1968</t>
+  </si>
+  <si>
+    <t>02.06.1991</t>
+  </si>
+  <si>
     <t>Leonid</t>
   </si>
   <si>
@@ -370,6 +415,9 @@
     <t>3, 4, 5</t>
   </si>
   <si>
+    <t>id21-leonid.png</t>
+  </si>
+  <si>
     <t>Elena</t>
   </si>
   <si>
@@ -382,12 +430,18 @@
     <t>Teaching</t>
   </si>
   <si>
+    <t>id22-elena.png</t>
+  </si>
+  <si>
     <t>Sasha</t>
   </si>
   <si>
     <t>Александр</t>
   </si>
   <si>
+    <t>02.11.1992</t>
+  </si>
+  <si>
     <t>Anton</t>
   </si>
   <si>
@@ -397,6 +451,9 @@
     <t>Жуков</t>
   </si>
   <si>
+    <t>08.05.1989</t>
+  </si>
+  <si>
     <t>id24-anton.png</t>
   </si>
   <si>
@@ -406,6 +463,9 @@
     <t>Юняша</t>
   </si>
   <si>
+    <t>14.01.2025</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -418,6 +478,9 @@
     <t>Элина</t>
   </si>
   <si>
+    <t>28.11.2009</t>
+  </si>
+  <si>
     <t>[25]</t>
   </si>
   <si>
@@ -430,9 +493,33 @@
     <t>Аппалинарий</t>
   </si>
   <si>
+    <t>26.10.1941</t>
+  </si>
+  <si>
+    <t>02.12.2008</t>
+  </si>
+  <si>
     <t>1, 21</t>
   </si>
   <si>
+    <t>Хабаровск, Хабаровский край, СССР</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Вера</t>
+  </si>
+  <si>
+    <t>Заривная</t>
+  </si>
+  <si>
+    <t>05.08.1945</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Крупки, Беларусь</t>
   </si>
   <si>
@@ -442,12 +529,12 @@
     <t>Лилина</t>
   </si>
   <si>
-    <t>Пашкова</t>
-  </si>
-  <si>
     <t>11.10.1928</t>
   </si>
   <si>
+    <t>21.08.1995</t>
+  </si>
+  <si>
     <t>33, 34, 35</t>
   </si>
   <si>
@@ -463,15 +550,30 @@
     <t>Alexand deda</t>
   </si>
   <si>
+    <t>14.06.1925</t>
+  </si>
+  <si>
+    <t>05.02.1995</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
     <t>Софья</t>
   </si>
   <si>
+    <t>Лапцевич</t>
+  </si>
+  <si>
     <t>29, 33, 34, 35</t>
   </si>
   <si>
     <t>id31-sofia.png</t>
   </si>
   <si>
+    <t>Vasiliy</t>
+  </si>
+  <si>
     <t>Василий</t>
   </si>
   <si>
@@ -481,114 +583,207 @@
     <t>id32-vasilii.png</t>
   </si>
   <si>
+    <t>Fyodor</t>
+  </si>
+  <si>
     <t>29, 34, 35</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
+    <t>Год рождения неточен.</t>
+  </si>
+  <si>
     <t>id33-fedor.png</t>
   </si>
   <si>
     <t>Ольга (Лёля)</t>
   </si>
   <si>
+    <t>Григорьева</t>
+  </si>
+  <si>
+    <t>30.09.1925</t>
+  </si>
+  <si>
+    <t>29, 33, 35</t>
+  </si>
+  <si>
+    <t>39, 56</t>
+  </si>
+  <si>
+    <t>Lviv,Ukraina</t>
+  </si>
+  <si>
+    <t>id34-lelia.png</t>
+  </si>
+  <si>
+    <t>Nikolai</t>
+  </si>
+  <si>
+    <t>09.01.1931</t>
+  </si>
+  <si>
+    <t>29, 33, 34</t>
+  </si>
+  <si>
+    <t>45, 46</t>
+  </si>
+  <si>
+    <t>id35-nikolay.png</t>
+  </si>
+  <si>
+    <t>Evgeniya</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Юрий</t>
+  </si>
+  <si>
+    <t>54, 55</t>
+  </si>
+  <si>
+    <t>Новгород</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Григорьев</t>
+  </si>
+  <si>
+    <t>Вологодская область, Россия</t>
+  </si>
+  <si>
+    <t>Отравлен угарным газом бандеровцами после войны</t>
+  </si>
+  <si>
+    <t>id38-ivan.png</t>
+  </si>
+  <si>
+    <t>Galina</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
     <t>Колосова</t>
   </si>
   <si>
-    <t>29, 33, 35</t>
-  </si>
-  <si>
-    <t>39, 40, 41</t>
-  </si>
-  <si>
-    <t>id34-lelia.png</t>
-  </si>
-  <si>
-    <t>29, 33, 34</t>
-  </si>
-  <si>
-    <t>45, 46</t>
-  </si>
-  <si>
-    <t>id35-nikolay.png</t>
-  </si>
-  <si>
-    <t>Евгения</t>
-  </si>
-  <si>
-    <t>Юрий</t>
-  </si>
-  <si>
-    <t>54, 55</t>
-  </si>
-  <si>
-    <t>Иван</t>
+    <t>02.12.?</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>41, 57</t>
+  </si>
+  <si>
+    <t>New-York</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Виктор</t>
   </si>
   <si>
     <t>Колосов</t>
   </si>
   <si>
-    <t>id38-ivan.png</t>
-  </si>
-  <si>
-    <t>Галина</t>
-  </si>
-  <si>
-    <t>40, 41</t>
-  </si>
-  <si>
-    <t>New-York</t>
-  </si>
-  <si>
-    <t>Виктор</t>
-  </si>
-  <si>
-    <t>39, 41</t>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Лука</t>
+  </si>
+  <si>
+    <t>Ludmila</t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Лаврентьева</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>Константин</t>
-  </si>
-  <si>
-    <t>39, 40</t>
-  </si>
-  <si>
-    <t>Лука</t>
+    <t>Nina</t>
   </si>
   <si>
     <t>Нина</t>
   </si>
   <si>
+    <t>06.09.1925</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
     <t>Ирина</t>
   </si>
   <si>
+    <t>Фомичёва</t>
+  </si>
+  <si>
+    <t>08.03.1925</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
+    <t>Boris</t>
+  </si>
+  <si>
     <t>Борис</t>
   </si>
   <si>
+    <t>07.07.?</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
     <t>49, 50</t>
   </si>
   <si>
+    <t>Dmitriy</t>
+  </si>
+  <si>
     <t>Фомичёв</t>
   </si>
   <si>
-    <t>Марина</t>
+    <t>22.02.?</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
+    <t>Vitaliy</t>
+  </si>
+  <si>
     <t>Виталий</t>
   </si>
   <si>
@@ -601,13 +796,19 @@
     <t>Спорт</t>
   </si>
   <si>
+    <t>Kazimir</t>
+  </si>
+  <si>
     <t>Каземир</t>
   </si>
   <si>
     <t>32, 52</t>
   </si>
   <si>
-    <t>Фотография Каземира сделана  в г. Ровны в 1928 году</t>
+    <t>Беларусь</t>
+  </si>
+  <si>
+    <t>Фотография Каземира сделана  в г. Ровны в 1928 году. Год рождения неточен</t>
   </si>
   <si>
     <t>id51-kazimir.png</t>
@@ -622,6 +823,9 @@
     <t>id52-fedor.png</t>
   </si>
   <si>
+    <t>Natalya</t>
+  </si>
+  <si>
     <t>Наталья</t>
   </si>
   <si>
@@ -634,118 +838,43 @@
     <t>54</t>
   </si>
   <si>
-    <t>15.03.1965</t>
-  </si>
-  <si>
-    <t>15.05.1989</t>
-  </si>
-  <si>
-    <t>17.10.1993</t>
-  </si>
-  <si>
-    <t>28.12.1968</t>
-  </si>
-  <si>
-    <t>08.05.1989</t>
-  </si>
-  <si>
-    <t>28.11.2009</t>
-  </si>
-  <si>
-    <t>21.08.1995</t>
-  </si>
-  <si>
-    <t>14.06.1925</t>
-  </si>
-  <si>
-    <t>05.02.1995</t>
-  </si>
-  <si>
-    <t>Melania</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Vasiliy</t>
-  </si>
-  <si>
-    <t>Fyodor</t>
-  </si>
-  <si>
-    <t>Nikolai</t>
-  </si>
-  <si>
-    <t>Evgeniya</t>
-  </si>
-  <si>
-    <t>Yuri</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Galina</t>
-  </si>
-  <si>
-    <t>Viktor</t>
-  </si>
-  <si>
-    <t>Konstantin</t>
-  </si>
-  <si>
-    <t>Luka</t>
-  </si>
-  <si>
-    <t>Irina</t>
-  </si>
-  <si>
-    <t>Boris</t>
-  </si>
-  <si>
-    <t>Dmitriy</t>
-  </si>
-  <si>
-    <t>Marina</t>
-  </si>
-  <si>
-    <t>Vitaliy</t>
-  </si>
-  <si>
-    <t>Kazimir</t>
-  </si>
-  <si>
-    <t>Natalya</t>
-  </si>
-  <si>
-    <t>Evgeny</t>
-  </si>
-  <si>
-    <t>Вера</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>05.08.1945</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>id21-leonid.png</t>
-  </si>
-  <si>
-    <t>id22-elena.png</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>02.06.1991</t>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Заведующая отделением скорой помощи</t>
+  </si>
+  <si>
+    <t>id39-galina.png</t>
+  </si>
+  <si>
+    <t>id57-viktor.png</t>
+  </si>
+  <si>
+    <t>id42-luka.jpg</t>
+  </si>
+  <si>
+    <t>Evgenii</t>
+  </si>
+  <si>
+    <t>id41_konstantin.png</t>
+  </si>
+  <si>
+    <t>Пашково, Вологодская область, СССР</t>
+  </si>
+  <si>
+    <t>Ляски, Минская область, СССР</t>
+  </si>
+  <si>
+    <t>Хасын, Магаданская область, Россия</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1317,9 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
       <c r="H2">
         <v>2</v>
       </c>
@@ -1198,16 +1330,22 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1215,25 +1353,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1241,10 +1391,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1253,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>21</v>
@@ -1262,22 +1412,22 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1285,10 +1435,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1297,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <v>21</v>
@@ -1306,19 +1456,19 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1326,10 +1476,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1338,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -1350,25 +1500,25 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1376,19 +1526,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1400,25 +1550,25 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,10 +1576,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1438,7 +1588,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1450,16 +1600,16 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1467,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1485,19 +1635,19 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1505,10 +1655,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1517,16 +1667,16 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1534,34 +1684,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1569,34 +1719,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1604,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1619,16 +1769,16 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M13">
         <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1636,13 +1786,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1651,16 +1801,16 @@
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M14">
         <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1668,19 +1818,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -1692,25 +1842,28 @@
         <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
+      <c r="N15" t="s">
+        <v>95</v>
+      </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1718,34 +1871,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
+      <c r="N16" t="s">
+        <v>95</v>
+      </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1753,19 +1909,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="H17">
         <v>24</v>
@@ -1777,25 +1933,28 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M17">
         <v>5</v>
       </c>
+      <c r="N17" t="s">
+        <v>95</v>
+      </c>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="R17" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1803,19 +1962,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1824,16 +1983,19 @@
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1841,19 +2003,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H19">
         <v>19</v>
@@ -1865,28 +2027,28 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="R19" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1894,31 +2056,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="H20">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1926,19 +2091,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
       <c r="I21">
         <v>18</v>
@@ -1950,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1958,10 +2123,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1970,7 +2135,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H22">
         <v>22</v>
@@ -1982,25 +2147,25 @@
         <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" t="s">
         <v>39</v>
       </c>
-      <c r="P22" t="s">
-        <v>32</v>
-      </c>
       <c r="Q22" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2008,19 +2173,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -2032,25 +2197,25 @@
         <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="Q23" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2058,13 +2223,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2076,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2084,40 +2255,40 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M25">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="R25" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2125,16 +2296,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -2143,22 +2317,22 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="M26">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="R26" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2166,19 +2340,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="I27">
         <v>24</v>
@@ -2187,22 +2361,22 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="M27">
         <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="R27" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2210,10 +2384,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2221,17 +2395,29 @@
       <c r="E28" t="s">
         <v>21</v>
       </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>158</v>
+      </c>
       <c r="H28">
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
+      <c r="N28" t="s">
+        <v>160</v>
+      </c>
+      <c r="O28" t="s">
+        <v>284</v>
+      </c>
       <c r="P28" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2239,31 +2425,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>164</v>
+      </c>
+      <c r="G29" t="s">
+        <v>165</v>
       </c>
       <c r="H29">
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2271,22 +2463,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2298,22 +2490,25 @@
         <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="R30" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2321,34 +2516,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G31" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="H31">
         <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2356,31 +2554,40 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>1894</v>
+      </c>
+      <c r="G32" t="s">
+        <v>165</v>
       </c>
       <c r="H32">
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="R32" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2388,13 +2595,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>184</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
+      </c>
+      <c r="F33">
+        <v>1897</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
       </c>
       <c r="H33">
         <v>31</v>
@@ -2403,19 +2619,19 @@
         <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q33" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2423,13 +2639,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
+      </c>
+      <c r="F34">
+        <v>1923</v>
       </c>
       <c r="H34">
         <v>36</v>
@@ -2441,22 +2663,22 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="M34">
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="Q34" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="R34" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2464,16 +2686,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>165</v>
       </c>
       <c r="H35">
         <v>38</v>
@@ -2485,22 +2713,25 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
+      <c r="O35" t="s">
+        <v>197</v>
+      </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q35" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="R35" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2508,13 +2739,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
       </c>
       <c r="H36">
         <v>44</v>
@@ -2526,22 +2763,25 @@
         <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
+      <c r="O36" t="s">
+        <v>38</v>
+      </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="Q36" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="R36" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2549,25 +2789,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="M37">
         <v>3</v>
       </c>
+      <c r="O37" t="s">
+        <v>38</v>
+      </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2575,10 +2821,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2593,13 +2842,16 @@
         <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="M38">
         <v>4</v>
       </c>
+      <c r="O38" t="s">
+        <v>209</v>
+      </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2607,31 +2859,40 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>165</v>
       </c>
       <c r="H39">
         <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
+      <c r="N39" t="s">
+        <v>213</v>
+      </c>
+      <c r="O39" t="s">
+        <v>197</v>
+      </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="Q39" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2639,16 +2900,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -2657,16 +2924,22 @@
         <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>171</v>
+        <v>220</v>
+      </c>
+      <c r="L40" t="s">
+        <v>221</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2674,37 +2947,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
       </c>
       <c r="H41">
-        <v>43</v>
-      </c>
-      <c r="I41">
-        <v>38</v>
-      </c>
-      <c r="J41">
-        <v>34</v>
-      </c>
-      <c r="K41" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="L41" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
+      <c r="O41" t="s">
+        <v>222</v>
+      </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2712,31 +2979,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
       <c r="I42">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J42">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K42" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>222</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2744,28 +3017,34 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
       </c>
       <c r="I43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>43</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="O43" t="s">
+        <v>222</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2773,28 +3052,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L44" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>222</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2802,25 +3084,34 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>236</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>237</v>
       </c>
       <c r="H45">
         <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
+      <c r="O45" t="s">
+        <v>38</v>
+      </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -2828,13 +3119,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>241</v>
       </c>
       <c r="H46">
         <v>48</v>
@@ -2846,16 +3143,19 @@
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="M46">
         <v>4</v>
       </c>
+      <c r="O46" t="s">
+        <v>38</v>
+      </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2863,13 +3163,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>245</v>
+      </c>
+      <c r="D47" t="s">
+        <v>180</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>246</v>
       </c>
       <c r="I47">
         <v>35</v>
@@ -2878,16 +3184,19 @@
         <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="L47" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="M47">
         <v>4</v>
       </c>
+      <c r="O47" t="s">
+        <v>38</v>
+      </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2895,16 +3204,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>251</v>
       </c>
       <c r="I48">
         <v>48</v>
@@ -2915,8 +3227,11 @@
       <c r="M48">
         <v>5</v>
       </c>
+      <c r="O48" t="s">
+        <v>38</v>
+      </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -2924,13 +3239,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -2939,13 +3254,16 @@
         <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="M49">
         <v>4</v>
       </c>
+      <c r="O49" t="s">
+        <v>38</v>
+      </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -2953,25 +3271,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I50">
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="M50">
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2979,10 +3297,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -2991,16 +3309,16 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3008,25 +3326,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>259</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
+      <c r="F52">
+        <v>1867</v>
+      </c>
+      <c r="G52">
+        <v>1937</v>
+      </c>
       <c r="L52" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
+      <c r="O52" t="s">
+        <v>261</v>
+      </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="Q52" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3034,28 +3364,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>165</v>
       </c>
       <c r="I53">
         <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
+      <c r="O53" t="s">
+        <v>38</v>
+      </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="Q53" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3063,25 +3402,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
+      <c r="O54" t="s">
+        <v>38</v>
+      </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3089,10 +3434,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -3104,13 +3449,13 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="M55">
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3118,10 +3463,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -3133,13 +3478,86 @@
         <v>53</v>
       </c>
       <c r="K56" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="M56">
         <v>5</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57">
+        <v>38</v>
+      </c>
+      <c r="J57">
+        <v>34</v>
+      </c>
+      <c r="K57" t="s">
+        <v>274</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58">
+        <v>43</v>
+      </c>
+      <c r="I58">
+        <v>40</v>
+      </c>
+      <c r="J58">
+        <v>39</v>
+      </c>
+      <c r="K58" t="s">
+        <v>275</v>
+      </c>
+      <c r="L58" t="s">
+        <v>234</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
